--- a/data/trans_camb/P20-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P20-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P20-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P20-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-1,75; 4,81</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 3,52</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 11,73</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 5,11</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,33; 7,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 3,47</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>44,24%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11,42%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>141,31%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>37,59%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,25%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-38,24; 214,02</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-54,22; 177,1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>23,17; 409,19</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-28,98; 182,89</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,37; 231,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,39; 118,73</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,31</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 6,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 1,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 5,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 5,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,2; 0,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,99; -1,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 5,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,96; 0,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 0,87</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,94%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 177,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,41; 49,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,94; 150,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,65; 73,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,59; 11,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,48; -22,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,22; 81,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,12; 7,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,81; 13,67</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,5</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,86; 8,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 2,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,19; 10,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,65; 9,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,02; 9,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 7,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,93; 8,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,33; 5,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,93; 8,06</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>226,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,05%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>278,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>115,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>149,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,93%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>151,81%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,67; 778,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,71; 266,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,06; 956,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,06; 313,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,15; 289,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,81; 252,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,94; 336,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,95; 210,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,33; 310,72</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,4</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,39; 7,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,78; 9,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,31; 9,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,32; 9,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 6,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 8,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,38; 7,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,88; 7,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,89; 7,64</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>231,37%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>266,87%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>257,1%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,28%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,2%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,43%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,99%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,02%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>65,03; 741,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>78,66; 789,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,39; 786,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,83; 249,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,84; 179,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,88; 215,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>66,76; 271,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,9; 253,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,43; 256,78</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,53</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,47; 4,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,96; 1,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,08; -0,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,04; 5,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,72; 0,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,59; -1,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 3,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,0; -0,12</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,79; -1,74</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,18%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,09%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,32%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,32%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,8%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,32%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,37%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,25; 120,48</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,41; 52,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,54; -4,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,05; 101,1</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,21; 20,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,09; -14,37</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,84; 66,15</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,81; 1,49</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,35; -28,2</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 5,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 7,5</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,89; 8,99</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,66; 4,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,79; 4,92</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,36; 1,54</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,11; 3,34</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,87; 4,64</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 4,15</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,3%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,67%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>134,38%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,07%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,32%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,64%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,73%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,47; 226,92</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,4; 313,9</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,35; 376,31</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,25; 48,38</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,08; 62,3</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,48; 17,84</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,85; 58,4</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,8; 76,04</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,13; 72,79</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,73</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,79; 1,3</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,44; 0,74</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 2,67</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 3,27</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,34; 1,75</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,51; 1,32</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; 1,51</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,49; 0,37</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 1,13</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,7%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,03%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,37%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,12%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,39%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,45%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,23%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,87; 34,31</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,87; 17,75</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,06; 62,66</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,31; 49,42</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,97; 27,66</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,75; 19,08</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,41; 23,53</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,54; 6,02</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,75; 18,51</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,42</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 3,38</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 3,2</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,24; 1,38</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 3,53</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,17; 1,88</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,58; -0,11</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 2,74</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 1,9</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 0,05</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,87%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,97%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,62%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,46%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,5; 125,99</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,67; 120,18</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,48; 55,15</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,94; 69,93</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,02; 37,97</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,12; -0,35</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,12; 66,5</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,04; 45,35</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,53; 1,32</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 3,12</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 1,69</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,66; 2,8</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 3,63</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 1,65</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; 0,02</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,12; 2,94</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 1,39</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 1,03</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,55%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,33%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,82%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,82%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,1%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,44; 84,56</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,04; 45,94</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,09; 78,06</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,11; 54,14</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,37; 24,42</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,7; 0,92</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,64; 53,73</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,09; 25,84</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,56; 19,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P20-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>0,9</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,21; 9,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 3,52</t>
+          <t>-3,11; 3,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,29; 12,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 5,11</t>
+          <t>-2,01; 4,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,48; 9,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,47</t>
+          <t>-1,65; 3,16</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>135,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>166,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,59%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>153,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>21,25%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,62; 413,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-54,22; 177,1</t>
+          <t>-57,54; 160,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,12; 447,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,98; 182,89</t>
+          <t>-30,04; 180,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,57; 323,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-24,39; 118,73</t>
+          <t>-28,6; 107,77</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,0</t>
+          <t>-5,03</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-1,41</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 5,92</t>
+          <t>-1,25; 5,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,99; -1,94</t>
+          <t>-8,0; -1,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 0,87</t>
+          <t>-3,74; 0,7</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>48,19%</t>
+          <t>42,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-53,26%</t>
+          <t>-53,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-17,94%</t>
+          <t>-19,27%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,94; 150,55</t>
+          <t>-18,22; 142,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,48; -22,8</t>
+          <t>-71,18; -24,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-42,81; 13,67</t>
+          <t>-44,21; 11,83</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>5,4</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,19; 10,46</t>
+          <t>3,04; 10,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 7,96</t>
+          <t>0,76; 7,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,93; 8,06</t>
+          <t>2,84; 7,99</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>278,0%</t>
+          <t>271,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>151,81%</t>
+          <t>148,96%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>63,06; 956,21</t>
+          <t>59,75; 924,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,81; 252,94</t>
+          <t>6,57; 247,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>54,33; 310,72</t>
+          <t>51,81; 305,54</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>3,52</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,39; 7,41</t>
+          <t>0,69; 5,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,31; 9,77</t>
+          <t>2,23; 9,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,32; 9,11</t>
+          <t>0,81; 8,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 8,26</t>
+          <t>-2,19; 6,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,5</t>
+          <t>1,79; 6,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 7,64</t>
+          <t>0,71; 6,35</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>231,37%</t>
+          <t>160,67%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>257,1%</t>
+          <t>259,66%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>111,28%</t>
+          <t>87,19%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>63,99%</t>
+          <t>34,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>143,43%</t>
+          <t>107,38%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>119,02%</t>
+          <t>95,03%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>65,03; 741,95</t>
+          <t>10,16; 519,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>58,39; 786,44</t>
+          <t>56,58; 781,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>29,83; 249,02</t>
+          <t>8,5; 232,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 215,77</t>
+          <t>-32,75; 155,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>66,76; 271,82</t>
+          <t>34,67; 234,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>37,43; 256,78</t>
+          <t>17,11; 219,21</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-4,53</t>
+          <t>-4,52</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,08; -0,5</t>
+          <t>-8,12; -0,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,59; -1,15</t>
+          <t>-10,53; -1,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,79; -1,74</t>
+          <t>-7,8; -1,8</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-62,32%</t>
+          <t>-62,46%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-56,8%</t>
+          <t>-56,38%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-58,37%</t>
+          <t>-58,21%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-85,54; -4,08</t>
+          <t>-85,36; -4,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-77,09; -14,37</t>
+          <t>-76,94; -14,48</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-75,35; -28,2</t>
+          <t>-74,97; -27,84</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,23</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,89; 8,99</t>
+          <t>1,78; 8,87</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 1,54</t>
+          <t>-7,36; 1,55</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 4,15</t>
+          <t>-1,85; 4,14</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>134,38%</t>
+          <t>132,73%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-23,64%</t>
+          <t>-23,63%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>16,4%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>26,35; 376,31</t>
+          <t>25,93; 372,8</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-53,48; 17,84</t>
+          <t>-53,64; 17,72</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-20,13; 72,79</t>
+          <t>-20,39; 72,63</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-1,28</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 2,67</t>
+          <t>-2,67; 2,41</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 1,32</t>
+          <t>-7,45; 0,77</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 1,13</t>
+          <t>-4,39; 0,54</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>-2,29%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-19,12%</t>
+          <t>-28,82%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-10,23%</t>
+          <t>-17,93%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-37,06; 62,66</t>
+          <t>-38,83; 59,0</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-54,75; 19,08</t>
+          <t>-70,76; 8,77</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-36,75; 18,51</t>
+          <t>-52,64; 7,76</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-1,86</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 1,38</t>
+          <t>-3,27; 0,84</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,58; -0,11</t>
+          <t>-4,64; -0,17</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,05</t>
+          <t>-3,85; -0,4</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-9,87%</t>
+          <t>-28,08%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-37,62%</t>
+          <t>-38,43%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-28,46%</t>
+          <t>-37,25%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-49,48; 55,15</t>
+          <t>-73,58; 25,74</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-60,12; -0,35</t>
+          <t>-60,5; -1,65</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-50,53; 1,32</t>
+          <t>-66,29; -9,38</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,8</t>
+          <t>0,0; 2,51</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 0,02</t>
+          <t>-2,86; -0,25</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,03</t>
+          <t>-1,09; 0,76</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>31,47%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-15,82%</t>
+          <t>-19,7%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>-1,64%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>14,09; 78,06</t>
+          <t>0,4; 67,68</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-29,7; 0,92</t>
+          <t>-35,66; -3,09</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 19,51</t>
+          <t>-18,36; 14,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P20-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 9,25</t>
+          <t>0,89; 9,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 4,81</t>
+          <t>-2,03; 5,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 3,18</t>
+          <t>-2,79; 3,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,29; 12,96</t>
+          <t>3,35; 13,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 11,73</t>
+          <t>2,15; 11,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 4,92</t>
+          <t>-2,11; 4,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 9,6</t>
+          <t>3,17; 9,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,21</t>
+          <t>1,4; 7,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,16</t>
+          <t>-1,22; 3,34</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,62; 413,44</t>
+          <t>10,49; 420,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,24; 214,02</t>
+          <t>-42,92; 229,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-57,54; 160,35</t>
+          <t>-54,01; 150,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>42,12; 447,37</t>
+          <t>36,69; 435,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,17; 409,19</t>
+          <t>19,32; 404,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,04; 180,1</t>
+          <t>-29,97; 172,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>58,57; 323,52</t>
+          <t>53,98; 345,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,37; 231,8</t>
+          <t>22,58; 249,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-28,6; 107,77</t>
+          <t>-23,53; 114,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 6,77</t>
+          <t>-0,04; 6,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 1,87</t>
+          <t>-3,81; 1,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 5,6</t>
+          <t>-0,68; 5,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 5,61</t>
+          <t>-1,59; 5,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 0,7</t>
+          <t>-5,89; 0,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,0; -1,97</t>
+          <t>-8,07; -2,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 5,15</t>
+          <t>0,1; 5,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 0,41</t>
+          <t>-4,05; 0,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,7</t>
+          <t>-3,68; 0,76</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 177,9</t>
+          <t>-2,43; 171,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-57,41; 49,32</t>
+          <t>-56,43; 43,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 142,26</t>
+          <t>-13,19; 140,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,65; 73,38</t>
+          <t>-15,84; 75,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,59; 11,99</t>
+          <t>-52,0; 15,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,18; -24,46</t>
+          <t>-71,88; -24,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 81,84</t>
+          <t>0,47; 87,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,12; 7,36</t>
+          <t>-46,86; 5,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-44,21; 11,83</t>
+          <t>-43,23; 13,31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 8,82</t>
+          <t>1,76; 9,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 2,94</t>
+          <t>-2,15; 2,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,04; 10,23</t>
+          <t>3,08; 9,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,65; 9,65</t>
+          <t>1,61; 9,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 9,27</t>
+          <t>1,28; 9,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,9</t>
+          <t>0,82; 8,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,93; 8,35</t>
+          <t>2,76; 8,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 5,38</t>
+          <t>0,63; 5,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,84; 7,99</t>
+          <t>3,01; 8,18</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>30,67; 778,31</t>
+          <t>27,81; 728,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-62,71; 266,81</t>
+          <t>-58,83; 298,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>59,75; 924,82</t>
+          <t>58,96; 861,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,06; 313,05</t>
+          <t>18,39; 304,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,15; 289,93</t>
+          <t>16,56; 278,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,57; 247,98</t>
+          <t>5,48; 261,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>55,94; 336,72</t>
+          <t>57,18; 314,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,95; 210,42</t>
+          <t>9,78; 222,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>51,81; 305,54</t>
+          <t>52,44; 312,3</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 5,87</t>
+          <t>0,77; 6,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,78; 9,12</t>
+          <t>2,62; 9,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 9,99</t>
+          <t>2,27; 10,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,81; 8,64</t>
+          <t>0,89; 8,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 6,53</t>
+          <t>-0,78; 6,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 6,09</t>
+          <t>-2,16; 6,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,41</t>
+          <t>1,78; 6,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 7,01</t>
+          <t>1,93; 6,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,35</t>
+          <t>0,78; 6,5</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,16; 519,69</t>
+          <t>6,16; 617,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>78,66; 789,99</t>
+          <t>64,47; 845,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>56,58; 781,19</t>
+          <t>62,09; 791,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,5; 232,5</t>
+          <t>10,33; 227,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 179,37</t>
+          <t>-14,66; 166,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,75; 155,49</t>
+          <t>-31,02; 150,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>34,67; 234,17</t>
+          <t>37,52; 236,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>38,9; 253,56</t>
+          <t>39,55; 238,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,11; 219,21</t>
+          <t>13,23; 210,37</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 4,95</t>
+          <t>-5,08; 4,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 1,54</t>
+          <t>-6,62; 1,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,12; -0,55</t>
+          <t>-8,28; -0,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 5,95</t>
+          <t>-5,2; 6,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 0,89</t>
+          <t>-9,14; 1,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,53; -1,09</t>
+          <t>-10,31; -1,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 3,89</t>
+          <t>-3,79; 3,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,0; -0,12</t>
+          <t>-6,3; 0,13</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -1,8</t>
+          <t>-7,81; -2,0</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-53,25; 120,48</t>
+          <t>-57,17; 112,94</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-74,41; 52,33</t>
+          <t>-74,27; 65,98</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-85,36; -4,49</t>
+          <t>-87,69; -11,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-43,05; 101,1</t>
+          <t>-44,69; 111,56</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-77,21; 20,42</t>
+          <t>-76,75; 20,65</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-76,94; -14,48</t>
+          <t>-77,15; -14,25</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-37,84; 66,15</t>
+          <t>-38,56; 58,11</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-68,81; 1,49</t>
+          <t>-65,98; 5,45</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-74,97; -27,84</t>
+          <t>-76,32; -33,16</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 5,75</t>
+          <t>-1,69; 5,43</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 7,5</t>
+          <t>-0,42; 7,64</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,78; 8,87</t>
+          <t>1,77; 9,3</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 4,04</t>
+          <t>-6,47; 4,02</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 4,92</t>
+          <t>-6,02; 4,79</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 1,55</t>
+          <t>-7,28; 2,06</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 3,34</t>
+          <t>-2,98; 3,53</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 4,64</t>
+          <t>-1,92; 4,83</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 4,14</t>
+          <t>-1,51; 4,13</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-35,47; 226,92</t>
+          <t>-37,67; 236,64</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 313,9</t>
+          <t>-12,92; 323,35</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>25,93; 372,8</t>
+          <t>22,38; 432,68</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-48,25; 48,38</t>
+          <t>-46,92; 54,47</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-43,08; 62,3</t>
+          <t>-44,56; 59,65</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-53,64; 17,72</t>
+          <t>-50,95; 26,12</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-34,85; 58,4</t>
+          <t>-31,94; 60,43</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-20,8; 76,04</t>
+          <t>-21,31; 86,6</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-20,39; 72,63</t>
+          <t>-17,29; 77,88</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 1,3</t>
+          <t>-3,67; 1,6</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 0,74</t>
+          <t>-4,3; 0,88</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 2,41</t>
+          <t>-2,81; 2,57</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 3,27</t>
+          <t>-3,24; 3,05</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 1,75</t>
+          <t>-4,3; 1,8</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 0,77</t>
+          <t>-7,73; 0,75</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 1,51</t>
+          <t>-2,79; 1,41</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 0,37</t>
+          <t>-3,72; 0,33</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 0,54</t>
+          <t>-4,58; 0,76</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-53,87; 34,31</t>
+          <t>-50,15; 39,65</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-60,87; 17,75</t>
+          <t>-62,72; 22,14</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-38,83; 59,0</t>
+          <t>-38,89; 59,24</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-30,31; 49,42</t>
+          <t>-31,63; 47,18</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-42,97; 27,66</t>
+          <t>-43,89; 26,15</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-70,76; 8,77</t>
+          <t>-70,29; 8,19</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-32,41; 23,53</t>
+          <t>-34,28; 23,57</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-42,54; 6,02</t>
+          <t>-44,39; 6,23</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-52,64; 7,76</t>
+          <t>-54,74; 11,46</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,38</t>
+          <t>-0,6; 3,43</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 3,2</t>
+          <t>-0,71; 3,12</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 0,84</t>
+          <t>-3,27; 0,86</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 3,53</t>
+          <t>-1,82; 3,37</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 1,88</t>
+          <t>-2,69; 2,19</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,64; -0,17</t>
+          <t>-4,74; -0,33</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,74</t>
+          <t>-0,49; 2,75</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,9</t>
+          <t>-1,29; 1,88</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,85; -0,4</t>
+          <t>-3,62; -0,44</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 125,99</t>
+          <t>-15,2; 137,0</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 120,18</t>
+          <t>-17,56; 122,57</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-73,58; 25,74</t>
+          <t>-75,55; 29,06</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-22,94; 69,93</t>
+          <t>-23,13; 65,68</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-40,02; 37,97</t>
+          <t>-35,14; 47,76</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-60,5; -1,65</t>
+          <t>-59,19; -1,9</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 66,5</t>
+          <t>-9,11; 67,03</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 45,35</t>
+          <t>-22,82; 46,1</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-66,29; -9,38</t>
+          <t>-63,43; -10,92</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,12</t>
+          <t>0,85; 3,08</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 1,69</t>
+          <t>-0,37; 1,74</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,51</t>
+          <t>0,06; 2,46</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,63</t>
+          <t>0,75; 3,46</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,65</t>
+          <t>-0,9; 1,71</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-2,86; -0,25</t>
+          <t>-2,82; -0,18</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,94</t>
+          <t>1,24; 2,92</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,39</t>
+          <t>-0,29; 1,42</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 0,76</t>
+          <t>-1,03; 0,79</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>17,44; 84,56</t>
+          <t>18,03; 85,72</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 45,94</t>
+          <t>-8,09; 47,99</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>0,4; 67,68</t>
+          <t>2,06; 66,53</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>11,11; 54,14</t>
+          <t>9,42; 51,69</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 24,42</t>
+          <t>-11,35; 25,69</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-35,66; -3,09</t>
+          <t>-35,19; -2,68</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>17,64; 53,73</t>
+          <t>19,84; 54,66</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 25,84</t>
+          <t>-4,76; 27,01</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 14,02</t>
+          <t>-16,12; 14,32</t>
         </is>
       </c>
     </row>
